--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE059142-1EE5-4F92-A934-4B9E03D63161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F1C8A-4F70-43EA-BBD6-3D45D98DFC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
   <sheets>
     <sheet name="LCV" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,7 +157,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -599,7 +599,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F1C8A-4F70-43EA-BBD6-3D45D98DFC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454CBAF-C3E4-4642-870C-B5561D5F797D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
   <sheets>
     <sheet name="LCV" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>segment</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>kdv</t>
+  </si>
+  <si>
+    <t>net_fiyat</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B7C08D-34A3-4456-96EB-6D841A91B715}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971154D8-6129-44D7-B9EF-EFA94F119A71}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>

--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454CBAF-C3E4-4642-870C-B5561D5F797D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDD77E-6E27-4003-9231-0DE381E61C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
   <sheets>
-    <sheet name="LCV" sheetId="1" r:id="rId1"/>
+    <sheet name="HCV" sheetId="2" r:id="rId1"/>
     <sheet name="LCV_OTV" sheetId="4" r:id="rId2"/>
-    <sheet name="HCV" sheetId="2" r:id="rId3"/>
+    <sheet name="LCV" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -37,8 +37,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}</author>
+    <author>tc={F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}</author>
+    <author>tc={D6D14DAB-4D02-4AA5-891F-699628379902}</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="2" shapeId="0" xr:uid="{D6D14DAB-4D02-4AA5-891F-699628379902}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>segment</t>
   </si>
@@ -101,6 +137,45 @@
   </si>
   <si>
     <t>net_fiyat</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>uretim</t>
+  </si>
+  <si>
+    <t>yerli</t>
+  </si>
+  <si>
+    <t>ithal</t>
+  </si>
+  <si>
+    <t>yerli_midibus</t>
+  </si>
+  <si>
+    <t>ithal_midibus</t>
+  </si>
+  <si>
+    <t>yerli_otobus</t>
+  </si>
+  <si>
+    <t>ithal_otobus</t>
+  </si>
+  <si>
+    <t>yerli_kamyon</t>
+  </si>
+  <si>
+    <t>ithal_kamyon</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>yakit_tuketimi</t>
   </si>
 </sst>
 </file>
@@ -111,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +209,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,10 +239,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,6 +291,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Murat Senzeybek" id="{E647A31E-5394-4B01-B799-A4CF11830264}" userId="ae0a8af07983ee80" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,7 +594,369 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H4" dT="2020-10-02T03:47:18.56" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}">
+    <text>https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2020-10-02T03:47:38.77" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}">
+    <text>https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2020-10-02T03:47:38.77" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{D6D14DAB-4D02-4AA5-891F-699628379902}">
+    <text>https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971154D8-6129-44D7-B9EF-EFA94F119A71}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>428000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H2" s="4">
+        <v>822</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:I4" si="0">H2*I3/H3</f>
+        <v>31.51</v>
+      </c>
+      <c r="J2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>428000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>822</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>31.51</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>822</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>31.51</v>
+      </c>
+      <c r="J4">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>822</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5*I6/H6</f>
+        <v>31.51</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>367650</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>900</v>
+      </c>
+      <c r="I6" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="J6">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>570000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>900</v>
+      </c>
+      <c r="I7" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="J7">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B7C08D-34A3-4456-96EB-6D841A91B715}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <f>[1]mevcut_degiskenler!$B$2</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <f>[1]mevcut_degiskenler!$B$2</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <f>[1]mevcut_degiskenler!$B$2</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <f>[1]mevcut_degiskenler!$B$2</f>
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCC8138-2034-4CD7-982D-9BBD75C94E88}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -595,181 +1046,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B7C08D-34A3-4456-96EB-6D841A91B715}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0.04</v>
-      </c>
-      <c r="D2">
-        <f>[1]mevcut_degiskenler!$B$2</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0.04</v>
-      </c>
-      <c r="D3">
-        <f>[1]mevcut_degiskenler!$B$2</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>0.04</v>
-      </c>
-      <c r="D4">
-        <f>[1]mevcut_degiskenler!$B$2</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0.04</v>
-      </c>
-      <c r="D5">
-        <f>[1]mevcut_degiskenler!$B$2</f>
-        <v>0.18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971154D8-6129-44D7-B9EF-EFA94F119A71}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>428000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="E2">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="E3">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>570000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="E4">
-        <v>10191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDD77E-6E27-4003-9231-0DE381E61C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A17227-9197-41F1-8074-A606B49B0F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
+    <workbookView xWindow="7710" yWindow="2610" windowWidth="14520" windowHeight="7335" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
   <sheets>
     <sheet name="HCV" sheetId="2" r:id="rId1"/>
@@ -40,12 +40,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}</author>
-    <author>tc={F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}</author>
-    <author>tc={D6D14DAB-4D02-4AA5-891F-699628379902}</author>
+    <author>tc={D1AF7448-A769-47D2-92A2-80D753A32D03}</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{D1AF7448-A769-47D2-92A2-80D753A32D03}">
       <text>
         <t>[Yorum yazışması]
 Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -53,28 +51,12 @@
     https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</t>
       </text>
     </comment>
-    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}">
-      <text>
-        <t>[Yorum yazışması]
-Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
-Açıklama:
-    https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</t>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="2" shapeId="0" xr:uid="{D6D14DAB-4D02-4AA5-891F-699628379902}">
-      <text>
-        <t>[Yorum yazışması]
-Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
-Açıklama:
-    https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>segment</t>
   </si>
@@ -169,13 +151,49 @@
     <t>yerli_kamyon</t>
   </si>
   <si>
-    <t>ithal_kamyon</t>
-  </si>
-  <si>
     <t>co2</t>
   </si>
   <si>
     <t>yakit_tuketimi</t>
+  </si>
+  <si>
+    <t>koltuk_sayisi</t>
+  </si>
+  <si>
+    <t>0-25</t>
+  </si>
+  <si>
+    <t>26-35</t>
+  </si>
+  <si>
+    <t>36-45</t>
+  </si>
+  <si>
+    <t>45+</t>
+  </si>
+  <si>
+    <t>agirlik</t>
+  </si>
+  <si>
+    <t>0-1500</t>
+  </si>
+  <si>
+    <t>1501-3500</t>
+  </si>
+  <si>
+    <t>3501-5000</t>
+  </si>
+  <si>
+    <t>5001-10000</t>
+  </si>
+  <si>
+    <t>10001-20000</t>
+  </si>
+  <si>
+    <t>20000+</t>
+  </si>
+  <si>
+    <t>mtv_grubu</t>
   </si>
 </sst>
 </file>
@@ -186,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,12 +227,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,11 +251,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -596,271 +607,854 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H4" dT="2020-10-02T03:47:18.56" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{85B9CB6F-1221-43D7-83DE-4F4EC3E59C94}">
+  <threadedComment ref="K4" dT="2020-10-02T03:47:18.56" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{D1AF7448-A769-47D2-92A2-80D753A32D03}">
     <text>https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</text>
-  </threadedComment>
-  <threadedComment ref="H7" dT="2020-10-02T03:47:38.77" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{F798211A-2CCB-4B56-A3B0-9E5BB89DF7B7}">
-    <text>https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</text>
-  </threadedComment>
-  <threadedComment ref="I7" dT="2020-10-02T03:47:38.77" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{D6D14DAB-4D02-4AA5-891F-699628379902}">
-    <text>https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971154D8-6129-44D7-B9EF-EFA94F119A71}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>428000</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H2" s="4">
-        <v>822</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I4" si="0">H2*I3/H3</f>
-        <v>31.51</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K2" s="3">
+        <f>20*26</f>
+        <v>520</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2">
         <v>1019</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>428000</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H3" s="4">
-        <v>822</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>31.51</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K3" s="3">
+        <f>20*26</f>
+        <v>520</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>1500000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="2">
         <v>0.01</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="J4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K4" s="3">
         <v>822</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
+      <c r="L4" s="3">
         <v>31.51</v>
       </c>
-      <c r="J4">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="B5">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1500000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="2">
         <v>0.01</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="J5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K5" s="3">
         <v>822</v>
       </c>
-      <c r="I5" s="4">
-        <f>H5*I6/H6</f>
+      <c r="L5" s="3">
         <v>31.51</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="B6">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1">
-        <v>367650</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="4">
-        <v>900</v>
-      </c>
-      <c r="I6" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="J6">
-        <v>6573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K6" s="3">
+        <v>822</v>
+      </c>
+      <c r="L6" s="3">
+        <v>31.51</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="B7">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>822</v>
+      </c>
+      <c r="L7" s="3">
+        <v>31.51</v>
+      </c>
+      <c r="M7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K8" s="3">
+        <v>822</v>
+      </c>
+      <c r="L8" s="3">
+        <v>31.51</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
         <v>570000</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="I9" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="I7" s="4">
+      <c r="L9" s="3">
         <v>34.5</v>
       </c>
-      <c r="J7">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>900</v>
+      </c>
+      <c r="L11" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K12" s="3">
+        <v>900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>900</v>
+      </c>
+      <c r="L13" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M13">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K14" s="3">
+        <v>900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M14">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K15" s="3">
+        <v>900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K16" s="3">
+        <v>900</v>
+      </c>
+      <c r="L16" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K17" s="3">
+        <v>900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K18" s="3">
+        <v>900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K19" s="3">
+        <v>900</v>
+      </c>
+      <c r="L19" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M19">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="3">
+        <v>900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="M20">
+        <v>3003</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A17227-9197-41F1-8074-A606B49B0F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C7365-6E14-4C63-B6BB-CDC7274E4498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="2610" windowWidth="14520" windowHeight="7335" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
   <sheets>
     <sheet name="HCV" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>segment</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>mtv_grubu</t>
+  </si>
+  <si>
+    <t>ithal_kamyon</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,7 @@
         <v>31.51</v>
       </c>
       <c r="M4">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -835,7 +838,7 @@
         <v>31.51</v>
       </c>
       <c r="M5">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,7 +879,7 @@
         <v>31.51</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,7 +920,7 @@
         <v>31.51</v>
       </c>
       <c r="M7">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1040,7 +1043,7 @@
         <v>34.5</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1122,7 +1125,7 @@
         <v>34.5</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1163,7 +1166,7 @@
         <v>34.5</v>
       </c>
       <c r="M13">
-        <v>1117</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,7 +1207,7 @@
         <v>34.5</v>
       </c>
       <c r="M14">
-        <v>5456</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -1256,13 +1259,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1286,7 +1289,7 @@
         <v>34.5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,13 +1300,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1338,13 +1341,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1368,7 +1371,7 @@
         <v>34.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1379,13 +1382,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1409,7 +1412,7 @@
         <v>34.5</v>
       </c>
       <c r="M19">
-        <v>615</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1420,13 +1423,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1450,7 +1453,7 @@
         <v>34.5</v>
       </c>
       <c r="M20">
-        <v>3003</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/LCV_HCV inputs.xlsx
+++ b/r_input/LCV_HCV inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C7365-6E14-4C63-B6BB-CDC7274E4498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F459FDC-A12E-4DE4-85BB-8E9CC9CD5E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25ACDE5-3E01-46FD-BE83-2A8099FD5975}"/>
   </bookViews>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D1AF7448-A769-47D2-92A2-80D753A32D03}</author>
+    <author>tc={C7C266A8-AD09-4CE9-988F-F77E329EBDBE}</author>
   </authors>
   <commentList>
     <comment ref="K4" authorId="0" shapeId="0" xr:uid="{D1AF7448-A769-47D2-92A2-80D753A32D03}">
@@ -51,6 +52,14 @@
     https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</t>
       </text>
     </comment>
+    <comment ref="K9" authorId="1" shapeId="0" xr:uid="{C7C266A8-AD09-4CE9-988F-F77E329EBDBE}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -207,7 +216,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +239,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -613,6 +628,9 @@
   <threadedComment ref="K4" dT="2020-10-02T03:47:18.56" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{D1AF7448-A769-47D2-92A2-80D753A32D03}">
     <text>https://www.carbonindependent.org/20.html#:~:text=the%20average%20passengers%20per%20bus,buses%20is%20822%20g%20%2F%20km</text>
   </threadedComment>
+  <threadedComment ref="K9" dT="2020-10-04T04:01:50.94" personId="{E647A31E-5394-4B01-B799-A4CF11830264}" id="{C7C266A8-AD09-4CE9-988F-F77E329EBDBE}">
+    <text>https://www.transportenvironment.org/sites/te/files/publications/2015%2009%20TE%20Briefing%20Truck%20CO2%20Too%20big%20to%20ignore_FINAL.pdf</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -621,17 +639,24 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1468,7 +1493,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D3">
         <f>[1]mevcut_degiskenler!$B$2</f>
